--- a/archive/22.xlsx
+++ b/archive/22.xlsx
@@ -501,6 +501,26 @@
           <t>Alexotl</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nenni</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>big big big big dumps</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>shinydog</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Alexotl</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="inlineStr">

--- a/archive/22.xlsx
+++ b/archive/22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="4395" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Draft" sheetId="1" r:id="rId1"/>
@@ -690,6 +690,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEA6F6F"/>
+      <color rgb="FF78D05C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -987,1217 +993,1217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="G16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="F18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>71</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="G20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="F22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>87</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="G24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>93</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="F26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>103</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="G28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>109</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="F30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>117</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>119</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="G32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="F34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>129</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="G36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>139</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="F38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>147</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>145</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="F40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="G40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>153</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>155</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="F42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="F44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="G44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>169</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>171</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="F46" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>179</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>177</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="G48" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2209,590 +2215,590 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="D13" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D10" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2804,15 +2810,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2831,7 +2837,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2848,13 +2854,13 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2862,13 +2868,13 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2876,7 +2882,7 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2887,18 +2893,18 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2917,9 +2923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
